--- a/08_FAC_MQA_Ihor_Yevchuk.xlsx
+++ b/08_FAC_MQA_Ihor_Yevchuk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EnglandDrive\DevEducation\Module03\ControlTask2_MQA_Ihor_Yevchuk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ControlTask2_MQA_Ihor_Yevchuk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6699B080-98E6-41AD-96AE-FB46E6BF3529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C166B5-0D8F-4D1F-83AB-914D37B7C6FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{25AD8D30-8B32-437F-9097-E1380E90D4C4}"/>
   </bookViews>
@@ -303,7 +303,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,20 +313,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF2411A8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -618,40 +626,11 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -659,13 +638,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -984,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D86FE0-5542-483F-985A-BB265B596BF6}">
   <dimension ref="B1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A67" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,1018 +1010,999 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15"/>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="15"/>
-      <c r="C8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
-      <c r="C10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
-      <c r="C14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
-      <c r="C16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="18"/>
-      <c r="C17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
-      <c r="C19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
-      <c r="C20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="14" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
-      <c r="C22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
-      <c r="C23" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
-      <c r="C25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
-      <c r="C26" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="C27" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="15"/>
-      <c r="C28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="15"/>
-      <c r="C29" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="14" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="15"/>
-      <c r="C31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="15"/>
-      <c r="C32" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="13" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="C33" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="15"/>
-      <c r="C34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="15"/>
-      <c r="C35" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="8" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="C36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="15"/>
-      <c r="C37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="B37" s="5"/>
+      <c r="C37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="15"/>
-      <c r="C38" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="13" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="C39" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="15"/>
-      <c r="C40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="B40" s="5"/>
+      <c r="C40" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="15"/>
-      <c r="C41" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="8" t="s">
+      <c r="B41" s="5"/>
+      <c r="C41" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="C42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="15"/>
-      <c r="C43" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="B43" s="5"/>
+      <c r="C43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="15"/>
-      <c r="C44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="13" t="s">
+      <c r="B44" s="5"/>
+      <c r="C44" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="10" t="s">
+      <c r="C45" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="15"/>
-      <c r="C46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="B46" s="5"/>
+      <c r="C46" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="15"/>
-      <c r="C47" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="8" t="s">
+      <c r="B47" s="5"/>
+      <c r="C47" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="4" t="s">
+      <c r="C48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="15"/>
-      <c r="C49" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="6" t="s">
+      <c r="B49" s="5"/>
+      <c r="C49" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="15"/>
-      <c r="C50" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="12" t="s">
+      <c r="B50" s="5"/>
+      <c r="C50" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="10" t="s">
+      <c r="C51" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="15"/>
-      <c r="C52" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="6" t="s">
+      <c r="B52" s="5"/>
+      <c r="C52" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="15"/>
-      <c r="C53" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="8" t="s">
+      <c r="B53" s="5"/>
+      <c r="C53" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="4" t="s">
+      <c r="C54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="15"/>
-      <c r="C55" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="6" t="s">
+      <c r="B55" s="5"/>
+      <c r="C55" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="15"/>
-      <c r="C56" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="8" t="s">
+      <c r="B56" s="5"/>
+      <c r="C56" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="4" t="s">
+      <c r="C57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="15"/>
-      <c r="C58" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="6" t="s">
+      <c r="B58" s="5"/>
+      <c r="C58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="15"/>
-      <c r="C59" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="12" t="s">
+      <c r="B59" s="5"/>
+      <c r="C59" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="10" t="s">
+      <c r="C60" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="15"/>
-      <c r="C61" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="6" t="s">
+      <c r="B61" s="5"/>
+      <c r="C61" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="15"/>
-      <c r="C62" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="8" t="s">
+      <c r="B62" s="5"/>
+      <c r="C62" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="10" t="s">
+      <c r="C63" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="15"/>
-      <c r="C64" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="6" t="s">
+      <c r="B64" s="5"/>
+      <c r="C64" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="15"/>
-      <c r="C65" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="8" t="s">
+      <c r="B65" s="5"/>
+      <c r="C65" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="4" t="s">
+      <c r="C66" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="15"/>
-      <c r="C67" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="6" t="s">
+      <c r="B67" s="5"/>
+      <c r="C67" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="15"/>
-      <c r="C68" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="8" t="s">
+      <c r="B68" s="5"/>
+      <c r="C68" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="4" t="s">
+      <c r="C69" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="15"/>
-      <c r="C70" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="6" t="s">
+      <c r="B70" s="5"/>
+      <c r="C70" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="15"/>
-      <c r="C71" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71" s="8" t="s">
+      <c r="B71" s="5"/>
+      <c r="C71" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="4" t="s">
+      <c r="C72" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="20"/>
-      <c r="C73" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="6" t="s">
+      <c r="C73" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="74" spans="2:4" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="19"/>
-      <c r="C74" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" s="12" t="s">
+      <c r="B74" s="18"/>
+      <c r="C74" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="4" t="s">
+      <c r="C75" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="76" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="20"/>
-      <c r="C76" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="6" t="s">
+      <c r="C76" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="19"/>
-      <c r="C77" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D77" s="8" t="s">
+      <c r="B77" s="18"/>
+      <c r="C77" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="4" t="s">
+      <c r="C78" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B79" s="20"/>
-      <c r="C79" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="6" t="s">
+      <c r="C79" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="19"/>
-      <c r="C80" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D80" s="8" t="s">
+      <c r="B80" s="18"/>
+      <c r="C80" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="81" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="4" t="s">
+      <c r="C81" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B82" s="20"/>
-      <c r="C82" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="6" t="s">
+      <c r="C82" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="83" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="19"/>
-      <c r="C83" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D83" s="8" t="s">
+      <c r="B83" s="18"/>
+      <c r="C83" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="84" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" s="4" t="s">
+      <c r="C84" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="85" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="15"/>
-      <c r="C85" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" s="6" t="s">
+      <c r="B85" s="5"/>
+      <c r="C85" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="86" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="15"/>
-      <c r="C86" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D86" s="12" t="s">
+      <c r="B86" s="5"/>
+      <c r="C86" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="87" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C87" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87" s="10" t="s">
+      <c r="C87" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="88" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="15"/>
-      <c r="C88" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" s="6" t="s">
+      <c r="B88" s="5"/>
+      <c r="C88" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="89" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="15"/>
-      <c r="C89" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" s="8" t="s">
+      <c r="B89" s="5"/>
+      <c r="C89" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="90" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D90" s="4" t="s">
+      <c r="C90" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="91" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="15"/>
-      <c r="C91" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="6" t="s">
+      <c r="B91" s="5"/>
+      <c r="C91" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="92" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="15"/>
-      <c r="C92" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D92" s="12" t="s">
+      <c r="B92" s="5"/>
+      <c r="C92" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="93" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" s="10" t="s">
+      <c r="C93" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="94" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="15"/>
-      <c r="C94" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" s="6" t="s">
+      <c r="B94" s="5"/>
+      <c r="C94" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="95" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="15"/>
-      <c r="C95" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D95" s="8" t="s">
+      <c r="B95" s="5"/>
+      <c r="C95" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="96" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" s="4" t="s">
+      <c r="C96" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="15"/>
-      <c r="C97" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="6" t="s">
+      <c r="B97" s="5"/>
+      <c r="C97" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="15"/>
-      <c r="C98" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D98" s="12" t="s">
+      <c r="B98" s="5"/>
+      <c r="C98" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C99" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D99" s="10" t="s">
+      <c r="C99" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="100" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="15"/>
-      <c r="C100" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="6" t="s">
+      <c r="B100" s="5"/>
+      <c r="C100" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="101" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="15"/>
-      <c r="C101" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D101" s="8" t="s">
+      <c r="B101" s="5"/>
+      <c r="C101" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="102" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C102" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D102" s="10" t="s">
+      <c r="C102" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="15"/>
-      <c r="C103" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="6" t="s">
+      <c r="B103" s="5"/>
+      <c r="C103" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="104" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="15"/>
-      <c r="C104" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D104" s="8" t="s">
+      <c r="B104" s="5"/>
+      <c r="C104" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" s="11" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B57:B59"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B51:B53"/>
@@ -2030,6 +2019,25 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B87:B89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/08_FAC_MQA_Ihor_Yevchuk.xlsx
+++ b/08_FAC_MQA_Ihor_Yevchuk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ControlTask2_MQA_Ihor_Yevchuk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C166B5-0D8F-4D1F-83AB-914D37B7C6FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD64D58-284A-4515-A7DE-CCF24BA1E47C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{25AD8D30-8B32-437F-9097-E1380E90D4C4}"/>
   </bookViews>
@@ -314,7 +314,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -322,7 +322,7 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -331,7 +331,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -993,7 +993,7 @@
   <dimension ref="B1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A67" sqref="A1:XFD1048576"/>
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,6 +2003,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B51:B53"/>
@@ -2019,25 +2038,6 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="B87:B89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/08_FAC_MQA_Ihor_Yevchuk.xlsx
+++ b/08_FAC_MQA_Ihor_Yevchuk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EnglandDrive\DevEducation\Module03\ControlTask2_MQA_Ihor_Yevchuk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ControlTask2_MQA_Ihor_Yevchuk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6699B080-98E6-41AD-96AE-FB46E6BF3529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0174786E-FB8A-415C-BFF8-705CE1AC6540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{25AD8D30-8B32-437F-9097-E1380E90D4C4}"/>
   </bookViews>
@@ -303,7 +303,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,20 +313,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF2411A8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -618,40 +626,11 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -659,13 +638,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -985,7 +993,7 @@
   <dimension ref="B1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+      <selection activeCell="A91" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,1018 +1010,999 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15"/>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="15"/>
-      <c r="C8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
-      <c r="C10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
-      <c r="C14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
-      <c r="C16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="18"/>
-      <c r="C17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
-      <c r="C19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
-      <c r="C20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="14" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
-      <c r="C22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
-      <c r="C23" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
-      <c r="C25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
-      <c r="C26" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="C27" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="15"/>
-      <c r="C28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="15"/>
-      <c r="C29" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="14" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="15"/>
-      <c r="C31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="15"/>
-      <c r="C32" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="13" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="C33" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="15"/>
-      <c r="C34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="15"/>
-      <c r="C35" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="8" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="C36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="15"/>
-      <c r="C37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="B37" s="5"/>
+      <c r="C37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="15"/>
-      <c r="C38" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="13" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="C39" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="15"/>
-      <c r="C40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="B40" s="5"/>
+      <c r="C40" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="15"/>
-      <c r="C41" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="8" t="s">
+      <c r="B41" s="5"/>
+      <c r="C41" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="C42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="15"/>
-      <c r="C43" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="B43" s="5"/>
+      <c r="C43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="15"/>
-      <c r="C44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="13" t="s">
+      <c r="B44" s="5"/>
+      <c r="C44" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="10" t="s">
+      <c r="C45" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="15"/>
-      <c r="C46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="B46" s="5"/>
+      <c r="C46" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="15"/>
-      <c r="C47" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="8" t="s">
+      <c r="B47" s="5"/>
+      <c r="C47" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="4" t="s">
+      <c r="C48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="15"/>
-      <c r="C49" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="6" t="s">
+      <c r="B49" s="5"/>
+      <c r="C49" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="15"/>
-      <c r="C50" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="12" t="s">
+      <c r="B50" s="5"/>
+      <c r="C50" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="10" t="s">
+      <c r="C51" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="15"/>
-      <c r="C52" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="6" t="s">
+      <c r="B52" s="5"/>
+      <c r="C52" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="15"/>
-      <c r="C53" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="8" t="s">
+      <c r="B53" s="5"/>
+      <c r="C53" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="4" t="s">
+      <c r="C54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="15"/>
-      <c r="C55" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="6" t="s">
+      <c r="B55" s="5"/>
+      <c r="C55" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="15"/>
-      <c r="C56" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="8" t="s">
+      <c r="B56" s="5"/>
+      <c r="C56" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="4" t="s">
+      <c r="C57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="15"/>
-      <c r="C58" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="6" t="s">
+      <c r="B58" s="5"/>
+      <c r="C58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="15"/>
-      <c r="C59" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="12" t="s">
+      <c r="B59" s="5"/>
+      <c r="C59" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="10" t="s">
+      <c r="C60" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="15"/>
-      <c r="C61" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="6" t="s">
+      <c r="B61" s="5"/>
+      <c r="C61" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="15"/>
-      <c r="C62" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="8" t="s">
+      <c r="B62" s="5"/>
+      <c r="C62" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="10" t="s">
+      <c r="C63" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="15"/>
-      <c r="C64" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="6" t="s">
+      <c r="B64" s="5"/>
+      <c r="C64" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="15"/>
-      <c r="C65" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="8" t="s">
+      <c r="B65" s="5"/>
+      <c r="C65" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="4" t="s">
+      <c r="C66" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="15"/>
-      <c r="C67" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="6" t="s">
+      <c r="B67" s="5"/>
+      <c r="C67" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="15"/>
-      <c r="C68" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="8" t="s">
+      <c r="B68" s="5"/>
+      <c r="C68" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="4" t="s">
+      <c r="C69" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="15"/>
-      <c r="C70" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="6" t="s">
+      <c r="B70" s="5"/>
+      <c r="C70" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="15"/>
-      <c r="C71" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71" s="8" t="s">
+      <c r="B71" s="5"/>
+      <c r="C71" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="4" t="s">
+      <c r="C72" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="20"/>
-      <c r="C73" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="6" t="s">
+      <c r="C73" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="74" spans="2:4" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="19"/>
-      <c r="C74" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" s="12" t="s">
+      <c r="B74" s="18"/>
+      <c r="C74" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="4" t="s">
+      <c r="C75" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="76" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="20"/>
-      <c r="C76" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="6" t="s">
+      <c r="C76" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="19"/>
-      <c r="C77" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D77" s="8" t="s">
+      <c r="B77" s="18"/>
+      <c r="C77" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="4" t="s">
+      <c r="C78" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B79" s="20"/>
-      <c r="C79" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="6" t="s">
+      <c r="C79" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="19"/>
-      <c r="C80" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D80" s="8" t="s">
+      <c r="B80" s="18"/>
+      <c r="C80" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="81" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="4" t="s">
+      <c r="C81" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B82" s="20"/>
-      <c r="C82" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="6" t="s">
+      <c r="C82" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="83" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="19"/>
-      <c r="C83" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D83" s="8" t="s">
+      <c r="B83" s="18"/>
+      <c r="C83" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="84" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" s="4" t="s">
+      <c r="C84" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="85" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="15"/>
-      <c r="C85" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" s="6" t="s">
+      <c r="B85" s="5"/>
+      <c r="C85" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="86" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="15"/>
-      <c r="C86" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D86" s="12" t="s">
+      <c r="B86" s="5"/>
+      <c r="C86" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="87" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C87" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87" s="10" t="s">
+      <c r="C87" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="88" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="15"/>
-      <c r="C88" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" s="6" t="s">
+      <c r="B88" s="5"/>
+      <c r="C88" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="89" spans="2:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="15"/>
-      <c r="C89" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" s="8" t="s">
+      <c r="B89" s="5"/>
+      <c r="C89" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="90" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D90" s="4" t="s">
+      <c r="C90" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="91" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="15"/>
-      <c r="C91" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="6" t="s">
+      <c r="B91" s="5"/>
+      <c r="C91" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="92" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="15"/>
-      <c r="C92" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D92" s="12" t="s">
+      <c r="B92" s="5"/>
+      <c r="C92" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="93" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" s="10" t="s">
+      <c r="C93" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="94" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="15"/>
-      <c r="C94" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" s="6" t="s">
+      <c r="B94" s="5"/>
+      <c r="C94" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="95" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="15"/>
-      <c r="C95" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D95" s="8" t="s">
+      <c r="B95" s="5"/>
+      <c r="C95" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="96" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" s="4" t="s">
+      <c r="C96" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="15"/>
-      <c r="C97" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="6" t="s">
+      <c r="B97" s="5"/>
+      <c r="C97" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="15"/>
-      <c r="C98" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D98" s="12" t="s">
+      <c r="B98" s="5"/>
+      <c r="C98" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C99" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D99" s="10" t="s">
+      <c r="C99" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="100" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="15"/>
-      <c r="C100" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="6" t="s">
+      <c r="B100" s="5"/>
+      <c r="C100" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="101" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="15"/>
-      <c r="C101" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D101" s="8" t="s">
+      <c r="B101" s="5"/>
+      <c r="C101" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="102" spans="2:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C102" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D102" s="10" t="s">
+      <c r="C102" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="15"/>
-      <c r="C103" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="6" t="s">
+      <c r="B103" s="5"/>
+      <c r="C103" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="104" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="15"/>
-      <c r="C104" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D104" s="8" t="s">
+      <c r="B104" s="5"/>
+      <c r="C104" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" s="11" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B57:B59"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B51:B53"/>
@@ -2030,6 +2019,25 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B87:B89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
